--- a/src/test/resources/loaderfail2.xlsx
+++ b/src/test/resources/loaderfail2.xlsx
@@ -42,24 +42,12 @@
     <t>@base</t>
   </si>
   <si>
-    <t>http://example.org/ex1</t>
-  </si>
-  <si>
-    <t>http://foo.bar/data#</t>
-  </si>
-  <si>
-    <t>http://foo.bar/model#</t>
-  </si>
-  <si>
     <t>@prefix</t>
   </si>
   <si>
     <t>abox:</t>
   </si>
   <si>
-    <t>http:/foo.bar/data#</t>
-  </si>
-  <si>
     <t>tbox:</t>
   </si>
   <si>
@@ -91,6 +79,18 @@
   </si>
   <si>
     <t>:schema</t>
+  </si>
+  <si>
+    <t>&lt;http://example.org/ex1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://foo.bar/data#&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://foo.bar/model#&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http:/foo.bar/data#&gt;</t>
   </si>
 </sst>
 </file>
@@ -513,15 +513,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.5703125"/>
     <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,51 +531,51 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -605,30 +603,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
